--- a/Notebooks/Test-Preferences.xlsx
+++ b/Notebooks/Test-Preferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/missd/Desktop/ML2 - Abschlussprojekt/ml2_project/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A3F533-99C5-924E-9E63-0F674DD67042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB813A03-0621-B34E-80C9-9331DFD194E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="1160" windowWidth="29400" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>John01 ist im Unterricht meist aktiv dabei. Insbesondere bei Fächern, welche ihn interessieren. Durch die Mediaktion ist eine deutliche Verbesserung betreffend seiner Aufmerksamkeitsspanne und Impulsregulation erkennbar, so dass er im Unterricht gute Leistungen zeigen kann. Es gelingt ihm meist, aufmerksam zu sein und den Instruktionen der Lehrperson zu folgen. John01 merkt sich die meisten Schulinhalte, vergisst sie jedoch, sobald das Thema abgeschlossen wird. So kann das Wissen später kaum abgerufen werden. Man merkt zwar, dass er gute Leistungen erbringen möchte, er ist aber noch nicht bereit, für diese auch Aufwand zu betreiben.</t>
-  </si>
-  <si>
-    <t>John01 zeigt eine gute Fähigkeit, aktiv am Unterricht teilzunehmen. Durch die Mediation ist eine deutliche Verbesserung seiner Aufmerksamkeitsspanne und Impulsregulation erkennbar. Zudem zeigt er gute Leistungen im Unterricht und kann währenddessen aufmerksam sein sowie den Instruktionen der Lehrperson folgen. Allerdings hat John01 teilweise Schwierigkeiten, sich schulische Inhalte zu merken. Es ist erkennbar, dass er zwar gute Leistungen erbringen möchte, jedoch möglichst wenig Aufwand dafür betreiben möchte. Auch kann er schulische Inhalte nur teilweise bei Bedarf abrufen.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t xml:space="preserve">John02 ist im Unterricht meist aktiv dabei. Insbesondere bei Fächern, welche ihn interessieren. Er zeigt generell gute Leistungen im Unterricht. Es gelingt ihm meist, aufmerksam zu sein und den Instruktionen der Lehrperson zu folgen. John02 merkt sich die meisten Schulinhalte, vergisst sie jedoch, sobald das Thema abgeschlossen wird. So kann das Wissen später kaum abgerufen werden. </t>
   </si>
@@ -99,14 +93,32 @@
     <t>Text 2</t>
   </si>
   <si>
-    <t>Präferenz</t>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>SHP 1</t>
+  </si>
+  <si>
+    <t>SHP 2</t>
+  </si>
+  <si>
+    <t>Similarity</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>John01 zeigt eine gute Fähigkeit, aktiv am Unterricht teilzunehmen. Durch die Medikation ist eine deutliche Verbesserung seiner Aufmerksamkeitsspanne und Impulsregulation erkennbar. Zudem zeigt er gute Leistungen im Unterricht und kann währenddessen aufmerksam sein sowie den Instruktionen der Lehrperson folgen. Allerdings hat John01 teilweise Schwierigkeiten, sich schulische Inhalte zu merken. Es ist erkennbar, dass er zwar gute Leistungen erbringen möchte, jedoch möglichst wenig Aufwand dafür betreiben möchte. Auch kann er schulische Inhalte nur teilweise bei Bedarf abrufen.</t>
+  </si>
+  <si>
+    <t>John01 ist im Unterricht meist aktiv dabei. Insbesondere bei Fächern, welche ihn interessieren. Durch die Medikation ist eine deutliche Verbesserung betreffend seiner Aufmerksamkeitsspanne und Impulsregulation erkennbar, so dass er im Unterricht gute Leistungen zeigen kann. Es gelingt ihm meist, aufmerksam zu sein und den Instruktionen der Lehrperson zu folgen. John01 merkt sich die meisten Schulinhalte, vergisst sie jedoch, sobald das Thema abgeschlossen wird. So kann das Wissen später kaum abgerufen werden. Man merkt zwar, dass er gute Leistungen erbringen möchte, er ist aber noch nicht bereit, für diese auch Aufwand zu betreiben.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +132,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -159,31 +184,334 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,111 +815,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="88.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="88.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="27">
+        <v>0.990620865318111</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="31">
+        <v>0.98701635445671099</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="31">
+        <v>0.99455616160948901</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="31">
+        <v>0.98517912862781198</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:7" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="32">
+        <v>0.99092839904463603</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="17">
+        <v>0.99145486312197495</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5">
+        <v>0.98333236449010997</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="5">
+        <v>0.98571604718447603</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="5">
+        <v>0.99175482773923695</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:7" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+      <c r="C11" s="12">
+        <v>0.99134114745473201</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>